--- a/Libraries/Vehicle/Brakes/Axle2/sm_car_data_Brakes_Axle2_PedalAbstract_DiscDisc.xlsx
+++ b/Libraries/Vehicle/Brakes/Axle2/sm_car_data_Brakes_Axle2_PedalAbstract_DiscDisc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Brakes\Axle2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Brakes\Axle2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDD7145-D42D-44BD-9E4B-EF50951CD569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA6FDC6-D0EF-4BF7-B841-8C0D1508B83B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="2790" windowWidth="17280" windowHeight="10215" activeTab="3" xr2:uid="{F004B1EB-6C21-4B80-A9FB-3227C2FE40BA}"/>
+    <workbookView xWindow="1788" yWindow="1680" windowWidth="17280" windowHeight="9060" activeTab="2" xr2:uid="{F004B1EB-6C21-4B80-A9FB-3227C2FE40BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
@@ -654,11 +654,11 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,8 +954,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5">
-        <f>1/0.2</f>
-        <v>5</v>
+        <f>1/0.025</f>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1101,8 +1101,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <f>1/0.2</f>
-        <v>5</v>
+        <f>1/0.025</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1138,11 +1138,11 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,8 +1438,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5">
-        <f>1/0.2</f>
-        <v>5</v>
+        <f>1/0.025</f>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1585,8 +1585,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <f>1/0.2</f>
-        <v>5</v>
+        <f>1/0.025</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1626,12 +1626,12 @@
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,8 +1927,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5">
-        <f>1/0.2</f>
-        <v>5</v>
+        <f>1/0.025</f>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2074,8 +2074,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <f>1/0.2</f>
-        <v>5</v>
+        <f>1/0.025</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2115,7 @@
   </sheetPr>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>

--- a/Libraries/Vehicle/Brakes/Axle2/sm_car_data_Brakes_Axle2_PedalAbstract_DiscDisc.xlsx
+++ b/Libraries/Vehicle/Brakes/Axle2/sm_car_data_Brakes_Axle2_PedalAbstract_DiscDisc.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Brakes\Axle2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Brakes\Axle2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA6FDC6-D0EF-4BF7-B841-8C0D1508B83B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660804AF-E31C-4057-B1F2-207ABB32C0A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1680" windowWidth="17280" windowHeight="9060" activeTab="2" xr2:uid="{F004B1EB-6C21-4B80-A9FB-3227C2FE40BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{F004B1EB-6C21-4B80-A9FB-3227C2FE40BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_Hamba" sheetId="2" r:id="rId2"/>
-    <sheet name="Bus_Makhulu" sheetId="3" r:id="rId3"/>
-    <sheet name="None" sheetId="5" r:id="rId4"/>
+    <sheet name="FSAE_Achilles" sheetId="6" r:id="rId3"/>
+    <sheet name="Bus_Makhulu" sheetId="3" r:id="rId4"/>
+    <sheet name="None" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="34">
   <si>
     <t>Units</t>
   </si>
@@ -135,6 +136,9 @@
   </si>
   <si>
     <t>Axle2_None</t>
+  </si>
+  <si>
+    <t>Axle2_PedalAbstract_DiscDisc_FSAE_Achilles</t>
   </si>
 </sst>
 </file>
@@ -232,7 +236,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -654,7 +693,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
@@ -1107,22 +1146,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:C4 B5:C13 A14">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 B14:B16 C14:C22 B20:B22">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1138,11 +1177,11 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1570,6 +1609,493 @@
       <c r="H21" s="5">
         <f>1500*0.7</f>
         <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <f>1/0.025</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:C4 B5:C13">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 B14:B16 C14:C22 B20:B22">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC0163A-AF4C-464C-BF9C-5C782A3CC5AA}">
+  <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
+  </sheetPr>
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+    </row>
+    <row r="7" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <f>1/0.025</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1619,14 +2145,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F85D0-65C6-4869-87D9-C8CB7EBA4E1E}">
   <sheetPr>
     <tabColor rgb="FFCCCCFF"/>
   </sheetPr>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -2108,7 +2634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEE180F-A278-45B2-965B-08ED80D30A86}">
   <sheetPr>
     <tabColor rgb="FFCCCCFF"/>
